--- a/src/test/java/com/pack/testData/AddEmployee.xlsx
+++ b/src/test/java/com/pack/testData/AddEmployee.xlsx
@@ -907,8 +907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="N1">
-      <selection activeCell="P2" sqref="P2:W11" activeCellId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
+      <selection activeCell="A5" sqref="A5" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1004,7 +1004,7 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>987651</v>
+        <v>982350</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -1054,7 +1054,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>987652</v>
+        <v>982352</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -1110,7 +1110,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>987653</v>
+        <v>982353</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>

--- a/src/test/java/com/pack/testData/AddEmployee.xlsx
+++ b/src/test/java/com/pack/testData/AddEmployee.xlsx
@@ -908,7 +908,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="A5" sqref="A5" activeCellId="0"/>
+      <selection activeCell="A2" sqref="A2" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1004,7 +1004,7 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>982350</v>
+        <v>982450</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>

--- a/src/test/java/com/pack/testData/AddEmployee.xlsx
+++ b/src/test/java/com/pack/testData/AddEmployee.xlsx
@@ -908,7 +908,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="A2" sqref="A2" activeCellId="0"/>
+      <selection activeCell="A6" sqref="A6" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1004,7 +1004,7 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>982450</v>
+        <v>977450</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -1054,7 +1054,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>982352</v>
+        <v>977352</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -1110,7 +1110,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>982353</v>
+        <v>986353</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
@@ -1166,7 +1166,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>987654</v>
+        <v>987664</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -1216,7 +1216,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>987655</v>
+        <v>987755</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>

--- a/src/test/java/com/pack/testData/AddEmployee.xlsx
+++ b/src/test/java/com/pack/testData/AddEmployee.xlsx
@@ -908,7 +908,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="A6" sqref="A6" activeCellId="0"/>
+      <selection activeCell="A5" sqref="A5" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1004,7 +1004,7 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>977450</v>
+        <v>976450</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -1054,7 +1054,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>977352</v>
+        <v>976352</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -1110,7 +1110,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>986353</v>
+        <v>986354</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>

--- a/src/test/java/com/pack/testData/AddEmployee.xlsx
+++ b/src/test/java/com/pack/testData/AddEmployee.xlsx
@@ -487,12 +487,88 @@
     <t xml:space="preserve">ZNo Distribution
 </t>
   </si>
+  <si>
+    <t>PartnerCode</t>
+  </si>
+  <si>
+    <t>masterqa</t>
+  </si>
+  <si>
+    <t>qa107</t>
+  </si>
+  <si>
+    <t>UserLoginID</t>
+  </si>
+  <si>
+    <t>tmobmas1</t>
+  </si>
+  <si>
+    <t>UserPassword</t>
+  </si>
+  <si>
+    <t>DataBaseModel</t>
+  </si>
+  <si>
+    <t>Q@testing123</t>
+  </si>
+  <si>
+    <t>RMS Modern</t>
+  </si>
+  <si>
+    <t>PartnerSelectorURL</t>
+  </si>
+  <si>
+    <t>https://qa-partnerselector.unifocus.com/</t>
+  </si>
+  <si>
+    <t>DatabaseName</t>
+  </si>
+  <si>
+    <t>PropertyName</t>
+  </si>
+  <si>
+    <t>DataBaseModel1</t>
+  </si>
+  <si>
+    <t>QA Butterscotch Master</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>QA Butterscotch 107</t>
+  </si>
+  <si>
+    <t>Doral Golf Resort and Spa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://qa-partnerselector.unifocus.com/
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMS Modern
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chicago
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QA Butterscotch Master
+</t>
+  </si>
+  <si>
+    <t>blank</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -520,6 +596,11 @@
       <name val="Calibri"/>
       <color rgb="FF0000FF"/>
       <u val="single"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -564,7 +645,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" xfId="0">
@@ -590,6 +671,10 @@
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -908,627 +993,899 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="A5" sqref="A5" activeCellId="0"/>
+      <selection activeCell="I2" sqref="I2" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="4" max="4" width="12" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" width="19.543" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" width="72.1797" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" width="15" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" width="9.81641" customWidth="1"/>
-    <col min="15" max="15" width="9.54297" customWidth="1"/>
-    <col min="16" max="16" width="17.9063" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" width="11.1797" customWidth="1"/>
-    <col min="18" max="18" width="19.0898" customWidth="1"/>
-    <col min="19" max="19" width="12.2695" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" width="10.9063" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" width="14.3633" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" width="12.7266" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="34.6328" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" width="11.1797" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" width="10.8164" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" width="12.7266" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" width="13.9062" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" width="20.6328" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" width="21.8164" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" width="14.9062" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" width="12" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" width="19.543" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" width="72.1797" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" width="15" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" width="9.81641" customWidth="1"/>
+    <col min="23" max="23" width="9.54297" customWidth="1"/>
+    <col min="24" max="24" width="17.9063" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" width="11.1797" customWidth="1"/>
+    <col min="26" max="26" width="19.0898" customWidth="1"/>
+    <col min="27" max="27" width="12.2695" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" width="10.9063" customWidth="1" bestFit="1"/>
+    <col min="29" max="29" width="14.3633" customWidth="1" bestFit="1"/>
+    <col min="30" max="30" width="12.7266" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="I1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="J1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="K1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="L1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="N1" t="s">
         <v>131</v>
       </c>
-      <c r="G1" t="s">
+      <c r="O1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="P1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="Q1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="R1" t="s">
         <v>142</v>
       </c>
-      <c r="K1" t="s">
+      <c r="S1" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="T1" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="U1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="N1" t="s">
+      <c r="V1" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="W1" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="P1" t="s">
+      <c r="X1" t="s">
         <v>42</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Y1" t="s">
         <v>43</v>
       </c>
-      <c r="R1" t="s">
+      <c r="Z1" t="s">
         <v>109</v>
       </c>
-      <c r="S1" t="s">
+      <c r="AA1" t="s">
         <v>110</v>
       </c>
-      <c r="T1" t="s">
+      <c r="AB1" t="s">
         <v>111</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AC1" t="s">
         <v>120</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AD1" t="s">
         <v>129</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AE1" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0">
-        <v>976450</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="I2" s="0">
+        <v>976470</v>
+      </c>
+      <c r="J2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="K2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="M2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="N2" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="G2" s="1">
+      <c r="O2" s="1">
         <v>43661</v>
       </c>
-      <c r="H2" s="1">
+      <c r="P2" s="1">
         <v>43666</v>
       </c>
-      <c r="I2" t="s">
+      <c r="Q2" t="s">
         <v>24</v>
       </c>
-      <c r="J2" t="s">
+      <c r="R2" t="s">
         <v>143</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" s="1">
+      <c r="U2" s="1">
         <v>44037</v>
       </c>
-      <c r="N2" s="0">
+      <c r="V2" s="0">
         <v>4</v>
       </c>
-      <c r="O2" s="1">
+      <c r="W2" s="1">
         <v>44089</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="X2" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="W2" s="0">
+      <c r="AE2" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="0">
+      <c r="A3" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="I3" s="0">
         <v>976352</v>
       </c>
-      <c r="B3" t="s">
+      <c r="J3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="K3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="L3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="M3" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="N3" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="G3" s="1">
+      <c r="O3" s="1">
         <v>42846</v>
       </c>
-      <c r="H3" s="1">
+      <c r="P3" s="1">
         <v>42856</v>
       </c>
-      <c r="I3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="Q3" t="s">
+        <v>170</v>
+      </c>
+      <c r="R3" t="s">
         <v>144</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="M3" s="1">
+      <c r="U3" s="1">
         <v>44307</v>
       </c>
-      <c r="N3" s="4">
+      <c r="V3" s="4">
         <v>3</v>
       </c>
-      <c r="O3" s="1">
+      <c r="W3" s="1">
         <v>44311</v>
       </c>
-      <c r="P3" s="0" t="s">
+      <c r="X3" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="U3" s="0" t="s">
+      <c r="AC3" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="V3" s="0">
+      <c r="AD3" s="0">
         <v>7654</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="0">
+      <c r="A4" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="I4" s="0">
         <v>986354</v>
       </c>
-      <c r="B4" t="s">
+      <c r="J4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
+      <c r="K4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="M4" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="N4" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="G4" s="1">
+      <c r="O4" s="1">
         <v>44048</v>
       </c>
-      <c r="H4" s="1">
+      <c r="P4" s="1">
         <v>44058</v>
       </c>
-      <c r="I4" t="s">
+      <c r="Q4" t="s">
         <v>18</v>
       </c>
-      <c r="J4" t="s">
+      <c r="R4" t="s">
         <v>145</v>
       </c>
-      <c r="K4" t="s">
+      <c r="S4" t="s">
         <v>84</v>
       </c>
-      <c r="L4" t="s">
+      <c r="T4" t="s">
         <v>55</v>
       </c>
-      <c r="M4" s="1">
+      <c r="U4" s="1">
         <v>44048</v>
       </c>
-      <c r="N4" s="4">
+      <c r="V4" s="4">
         <v>2</v>
       </c>
-      <c r="O4" s="1">
+      <c r="W4" s="1">
         <v>44068</v>
       </c>
-      <c r="P4" s="0" t="s">
+      <c r="X4" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="R4" s="0" t="s">
+      <c r="Z4" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="S4" s="0">
+      <c r="AA4" s="0">
         <v>5</v>
       </c>
-      <c r="T4" s="0">
+      <c r="AB4" s="0">
         <v>8679</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="0">
+      <c r="A5" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="I5" s="0">
         <v>987664</v>
       </c>
-      <c r="B5" t="s">
+      <c r="J5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
+      <c r="K5" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="M5" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="N5" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="G5" s="1">
+      <c r="O5" s="1">
         <v>42027</v>
       </c>
-      <c r="H5" s="1">
+      <c r="P5" s="1">
         <v>42058</v>
       </c>
-      <c r="I5" t="s">
+      <c r="Q5" t="s">
         <v>21</v>
       </c>
-      <c r="J5" t="s">
+      <c r="R5" t="s">
         <v>143</v>
       </c>
-      <c r="K5" t="s">
+      <c r="S5" t="s">
         <v>94</v>
       </c>
-      <c r="L5" t="s">
+      <c r="T5" t="s">
         <v>95</v>
       </c>
-      <c r="M5" s="1">
+      <c r="U5" s="1">
         <v>43468</v>
       </c>
-      <c r="N5" s="4">
+      <c r="V5" s="4">
         <v>5</v>
       </c>
-      <c r="O5" s="1">
+      <c r="W5" s="1">
         <v>43474</v>
       </c>
-      <c r="P5" s="0" t="s">
+      <c r="X5" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="Q5" s="0">
+      <c r="Y5" s="0">
         <v>9.56</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="0">
+      <c r="A6" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="I6" s="0">
         <v>987755</v>
       </c>
-      <c r="B6" t="s">
+      <c r="J6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
+      <c r="K6" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="M6" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="N6" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="G6" s="1">
+      <c r="O6" s="1">
         <v>41792</v>
       </c>
-      <c r="H6" s="1">
+      <c r="P6" s="1">
         <v>41814</v>
       </c>
-      <c r="I6" t="s">
+      <c r="Q6" t="s">
         <v>24</v>
       </c>
-      <c r="J6" t="s">
+      <c r="R6" t="s">
         <v>144</v>
       </c>
-      <c r="K6" t="s">
+      <c r="S6" t="s">
         <v>100</v>
       </c>
-      <c r="L6" t="s">
+      <c r="T6" t="s">
         <v>101</v>
       </c>
-      <c r="M6" s="1">
+      <c r="U6" s="1">
         <v>44359</v>
       </c>
-      <c r="N6" s="4">
+      <c r="V6" s="4">
         <v>1</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="W6" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="P6" s="0" t="s">
+      <c r="X6" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="R6" s="0">
+      <c r="Z6" s="0">
         <v>35</v>
       </c>
-      <c r="S6" s="0">
+      <c r="AA6" s="0">
         <v>4</v>
       </c>
-      <c r="T6" s="0">
+      <c r="AB6" s="0">
         <v>4578</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="0">
+      <c r="A7" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="I7" s="0">
         <v>987656</v>
       </c>
-      <c r="B7" t="s">
+      <c r="J7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
+      <c r="K7" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="M7" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="N7" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="G7" s="1">
+      <c r="O7" s="1">
         <v>38694</v>
       </c>
-      <c r="H7" s="1">
+      <c r="P7" s="1">
         <v>38695</v>
       </c>
-      <c r="I7" t="s">
+      <c r="Q7" t="s">
         <v>27</v>
       </c>
-      <c r="J7" t="s">
+      <c r="R7" t="s">
         <v>145</v>
       </c>
-      <c r="K7" t="s">
+      <c r="S7" t="s">
         <v>102</v>
       </c>
-      <c r="L7" t="s">
+      <c r="T7" t="s">
         <v>103</v>
       </c>
-      <c r="M7" s="1">
+      <c r="U7" s="1">
         <v>44538</v>
       </c>
-      <c r="N7" s="4">
+      <c r="V7" s="4">
         <v>4</v>
       </c>
-      <c r="O7" s="1">
+      <c r="W7" s="1">
         <v>44539</v>
       </c>
-      <c r="P7" s="0" t="s">
+      <c r="X7" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="W7" s="0">
+      <c r="AE7" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="0">
+      <c r="A8" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="I8" s="0">
         <v>987657</v>
       </c>
-      <c r="B8" t="s">
+      <c r="J8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" t="s">
+      <c r="K8" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="M8" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="N8" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="G8" s="1">
+      <c r="O8" s="1">
         <v>43176</v>
       </c>
-      <c r="H8" s="1">
+      <c r="P8" s="1">
         <v>43207</v>
       </c>
-      <c r="I8" t="s">
+      <c r="Q8" t="s">
         <v>30</v>
       </c>
-      <c r="J8" t="s">
+      <c r="R8" t="s">
         <v>144</v>
       </c>
-      <c r="K8" t="s">
+      <c r="S8" t="s">
         <v>104</v>
       </c>
-      <c r="L8" t="s">
+      <c r="T8" t="s">
         <v>61</v>
       </c>
-      <c r="M8" s="1">
+      <c r="U8" s="1">
         <v>44197</v>
       </c>
-      <c r="N8" s="4">
+      <c r="V8" s="4">
         <v>2</v>
       </c>
-      <c r="O8" s="1">
+      <c r="W8" s="1">
         <v>44208</v>
       </c>
-      <c r="P8" s="0" t="s">
+      <c r="X8" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="U8" s="0" t="s">
+      <c r="AC8" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="V8" s="0">
+      <c r="AD8" s="0">
         <v>4567</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="0">
+      <c r="A9" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="I9" s="0">
         <v>987658</v>
       </c>
-      <c r="B9" t="s">
+      <c r="J9" t="s">
         <v>31</v>
       </c>
-      <c r="C9" t="s">
+      <c r="K9" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="M9" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="N9" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="G9" s="1">
+      <c r="O9" s="1">
         <v>44356</v>
       </c>
-      <c r="H9" s="1">
+      <c r="P9" s="1">
         <v>44369</v>
       </c>
-      <c r="I9" t="s">
+      <c r="Q9" t="s">
         <v>33</v>
       </c>
-      <c r="J9" t="s">
+      <c r="R9" t="s">
         <v>143</v>
       </c>
-      <c r="K9" t="s">
+      <c r="S9" t="s">
         <v>102</v>
       </c>
-      <c r="L9" t="s">
+      <c r="T9" t="s">
         <v>107</v>
       </c>
-      <c r="M9" s="1">
+      <c r="U9" s="1">
         <v>44356</v>
       </c>
-      <c r="N9" s="4">
+      <c r="V9" s="4">
         <v>5</v>
       </c>
-      <c r="O9" s="1">
+      <c r="W9" s="1">
         <v>44366</v>
       </c>
-      <c r="P9" s="0" t="s">
+      <c r="X9" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="Q9" s="0" t="s">
+      <c r="Y9" s="0" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="0">
+      <c r="A10" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="I10" s="0">
         <v>987659</v>
       </c>
-      <c r="B10" t="s">
+      <c r="J10" t="s">
         <v>34</v>
       </c>
-      <c r="C10" t="s">
+      <c r="K10" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="M10" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="N10" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="G10" s="1">
+      <c r="O10" s="1">
         <v>42572</v>
       </c>
-      <c r="H10" s="1">
+      <c r="P10" s="1">
         <v>42605</v>
       </c>
-      <c r="I10" t="s">
+      <c r="Q10" t="s">
         <v>11</v>
       </c>
-      <c r="J10" t="s">
+      <c r="R10" t="s">
         <v>144</v>
       </c>
-      <c r="K10" t="s">
+      <c r="S10" t="s">
         <v>96</v>
       </c>
-      <c r="L10" t="s">
+      <c r="T10" t="s">
         <v>97</v>
       </c>
-      <c r="M10" s="1">
+      <c r="U10" s="1">
         <v>44033</v>
       </c>
-      <c r="N10" s="4">
+      <c r="V10" s="4">
         <v>3</v>
       </c>
-      <c r="O10" s="1">
+      <c r="W10" s="1">
         <v>44064</v>
       </c>
-      <c r="P10" s="0" t="s">
+      <c r="X10" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="R10" s="0">
+      <c r="Z10" s="0">
         <v>30</v>
       </c>
-      <c r="S10" s="0">
+      <c r="AA10" s="0">
         <v>6</v>
       </c>
-      <c r="T10" s="0">
+      <c r="AB10" s="0">
         <v>3456</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="0">
+      <c r="A11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E11" t="s">
+        <v>167</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="G11" t="s">
+        <v>168</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="I11" s="0">
         <v>987650</v>
       </c>
-      <c r="B11" t="s">
+      <c r="J11" t="s">
         <v>36</v>
       </c>
-      <c r="C11" t="s">
+      <c r="K11" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="M11" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="N11" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="G11" s="1">
+      <c r="O11" s="1">
         <v>41314</v>
       </c>
-      <c r="H11" s="1">
+      <c r="P11" s="1">
         <v>41326</v>
       </c>
-      <c r="I11" t="s">
+      <c r="Q11" t="s">
         <v>18</v>
       </c>
-      <c r="J11" t="s">
+      <c r="R11" t="s">
         <v>145</v>
       </c>
-      <c r="K11" t="s">
+      <c r="S11" t="s">
         <v>106</v>
       </c>
-      <c r="L11" t="s">
+      <c r="T11" t="s">
         <v>105</v>
       </c>
-      <c r="M11" s="1">
+      <c r="U11" s="1">
         <v>44325</v>
       </c>
-      <c r="N11" s="4">
+      <c r="V11" s="4">
         <v>2</v>
       </c>
-      <c r="O11" s="1">
+      <c r="W11" s="1">
         <v>44335</v>
       </c>
-      <c r="P11" s="0" t="s">
+      <c r="X11" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="U11" s="0" t="s">
+      <c r="AC11" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="V11" s="0">
+      <c r="AD11" s="0">
         <v>7568</v>
       </c>
     </row>
@@ -1544,6 +1901,18 @@
     <hyperlink ref="F9" display="jorla@gmail.com" r:id="rId8"/>
     <hyperlink ref="F10" display="john@gmail.com" r:id="rId9"/>
     <hyperlink ref="F11" display="tom@gmail.com" r:id="rId10"/>
+    <hyperlink ref="F5" display="robert@gmail.com" r:id="rId11"/>
+    <hyperlink ref="F6" display="gujjarlla@gmail.com" r:id="rId12"/>
+    <hyperlink ref="F7" display="ciramdasu@gmail.com" r:id="rId13"/>
+    <hyperlink ref="F5" display="koshika@gmail.com" r:id="rId14"/>
+    <hyperlink ref="F6" display="narvate@gmail.com" r:id="rId15"/>
+    <hyperlink ref="F7" display="kattera@gmail.com" r:id="rId16"/>
+    <hyperlink ref="F9" display="narvate@gmail.com" r:id="rId17"/>
+    <hyperlink ref="F10" display="kattera@gmail.com" r:id="rId18"/>
+    <hyperlink ref="F11" display="koshika@gmail.com" r:id="rId19"/>
+    <hyperlink ref="F11" display="tom@gmail.com" r:id="rId20"/>
+    <hyperlink ref="F8" r:id="rId7" display="marojju@gmail.com"/>
+    <hyperlink ref="F8" display="koshika@gmail.com" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
